--- a/hebrewOutputs/hebrew82Comperation_2_Common_alpha=0.36.xlsx
+++ b/hebrewOutputs/hebrew82Comperation_2_Common_alpha=0.36.xlsx
@@ -807,7 +807,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -863,7 +863,7 @@
         <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D10" t="s">
         <v>7</v>
@@ -1129,7 +1129,7 @@
         <v>20</v>
       </c>
       <c r="C29" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D29" t="s">
         <v>7</v>
@@ -1255,7 +1255,7 @@
         <v>18</v>
       </c>
       <c r="C38" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D38" t="s">
         <v>7</v>
@@ -1451,7 +1451,7 @@
         <v>65</v>
       </c>
       <c r="C52" t="s">
-        <v>6</v>
+        <v>65</v>
       </c>
       <c r="D52" t="s">
         <v>9</v>
@@ -1773,7 +1773,7 @@
         <v>18</v>
       </c>
       <c r="C75" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D75" t="s">
         <v>7</v>
@@ -1871,7 +1871,7 @@
         <v>86</v>
       </c>
       <c r="C82" t="s">
-        <v>44</v>
+        <v>6</v>
       </c>
       <c r="D82" t="s">
         <v>7</v>
@@ -1955,7 +1955,7 @@
         <v>18</v>
       </c>
       <c r="C88" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D88" t="s">
         <v>7</v>
@@ -2249,7 +2249,7 @@
         <v>5</v>
       </c>
       <c r="C109" t="s">
-        <v>6</v>
+        <v>44</v>
       </c>
       <c r="D109" t="s">
         <v>7</v>
